--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>Poll "Presenting solutions for the problem sets"</t>
   </si>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>Patrick Pöpperling (with Katrin Marques and Marc Kerstan)</t>
+  </si>
+  <si>
+    <t>Nargiz Ahmadova (007)</t>
+  </si>
+  <si>
+    <t>Altaf Hussain</t>
+  </si>
+  <si>
+    <t>Valentyn Khmarskyi</t>
+  </si>
+  <si>
+    <t>Ozodbek Ozodov</t>
   </si>
 </sst>
 </file>
@@ -317,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -430,13 +442,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -478,6 +510,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,13 +680,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -735,19 +770,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1002,13 +1037,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1312,19 +1341,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1575,7 +1604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2440,6 +2469,70 @@
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
     </row>
+    <row r="53" ht="13.65" customHeight="1">
+      <c r="A53" t="s" s="14">
+        <v>79</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" t="s" s="13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" ht="13.65" customHeight="1">
+      <c r="A54" t="s" s="15">
+        <v>80</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" ht="13.65" customHeight="1">
+      <c r="A55" t="s" s="16">
+        <v>81</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" ht="13.65" customHeight="1">
+      <c r="A56" t="s" s="16">
+        <v>82</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" t="s" s="13">
+        <v>71</v>
+      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:C4"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>Poll "Presenting solutions for the problem sets"</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Ozodbek Ozodov</t>
+  </si>
+  <si>
+    <t>Marvin Benedikt Riemer</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -443,7 +446,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -454,7 +459,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -462,45 +469,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
@@ -511,13 +531,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1604,11 +1624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="50.5" style="1" customWidth="1"/>
     <col min="2" max="10" width="17.6719" style="1" customWidth="1"/>
@@ -2470,7 +2490,7 @@
       <c r="J52" s="12"/>
     </row>
     <row r="53" ht="13.65" customHeight="1">
-      <c r="A53" t="s" s="14">
+      <c r="A53" t="s" s="11">
         <v>79</v>
       </c>
       <c r="B53" s="12"/>
@@ -2486,7 +2506,7 @@
       </c>
     </row>
     <row r="54" ht="13.65" customHeight="1">
-      <c r="A54" t="s" s="15">
+      <c r="A54" t="s" s="14">
         <v>80</v>
       </c>
       <c r="B54" s="12"/>
@@ -2502,7 +2522,7 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" ht="13.65" customHeight="1">
-      <c r="A55" t="s" s="16">
+      <c r="A55" t="s" s="15">
         <v>81</v>
       </c>
       <c r="B55" s="12"/>
@@ -2518,7 +2538,7 @@
       <c r="J55" s="12"/>
     </row>
     <row r="56" ht="13.65" customHeight="1">
-      <c r="A56" t="s" s="16">
+      <c r="A56" t="s" s="15">
         <v>82</v>
       </c>
       <c r="B56" s="12"/>
@@ -2532,6 +2552,22 @@
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
+    </row>
+    <row r="57" ht="13.65" customHeight="1">
+      <c r="A57" t="s" s="16">
+        <v>83</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="12"/>
+      <c r="E57" t="s" s="13">
+        <v>49</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>Poll "Presenting solutions for the problem sets"</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Marvin Benedikt Riemer</t>
+  </si>
+  <si>
+    <t>Besar Vatoci</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -538,6 +541,9 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1624,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2478,9 +2484,7 @@
         <v>78</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" t="s" s="13">
-        <v>23</v>
-      </c>
+      <c r="C52" s="13"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -2568,6 +2572,22 @@
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
+    </row>
+    <row r="58" ht="13.65" customHeight="1">
+      <c r="A58" t="s" s="17">
+        <v>84</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" t="s" s="13">
+        <v>75</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
